--- a/Resources/TreatmentProgramsCT.xlsx
+++ b/Resources/TreatmentProgramsCT.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/staceyterrell/opioid_deaths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmsqu\OneDrive\Documents\GitHub\opioid_deaths\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4919C768-C2FC-0D41-88FE-EBB980796FE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B48BAB0-6BE4-464C-8447-454BA505209B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TreatmentProgram" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TreatmentProgram!$A$1:$J$42</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="176">
   <si>
     <t>Program Name</t>
   </si>
@@ -542,15 +545,28 @@
   </si>
   <si>
     <t>(860) 456-7990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -698,6 +714,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1013,57 +1050,63 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1418,23 +1461,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:J20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="43.35546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1459,8 +1505,14 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1483,8 +1535,14 @@
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="5">
+        <v>41.212110000000003</v>
+      </c>
+      <c r="J2" s="5">
+        <v>-73.206672999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1507,8 +1565,14 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="5">
+        <v>41.209282999999999</v>
+      </c>
+      <c r="J3" s="5">
+        <v>-73.164603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1531,8 +1595,14 @@
       <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="5">
+        <v>41.209282999999999</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-73.164603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1555,8 +1625,14 @@
       <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="5">
+        <v>41.161599000000002</v>
+      </c>
+      <c r="J5" s="5">
+        <v>-73.217622000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1581,8 +1657,14 @@
       <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="6">
+        <v>41.681578000000002</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-72.940748999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1605,8 +1687,14 @@
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="5">
+        <v>42.024628999999997</v>
+      </c>
+      <c r="J7" s="5">
+        <v>-73.309616000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1629,8 +1717,14 @@
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="5">
+        <v>41.374284000000003</v>
+      </c>
+      <c r="J8" s="5">
+        <v>-73.457611</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -1655,8 +1749,14 @@
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="5">
+        <v>41.374284000000003</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-73.457611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -1681,8 +1781,14 @@
       <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="6">
+        <v>41.983992999999998</v>
+      </c>
+      <c r="J10" s="6">
+        <v>-72.555553000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>45</v>
       </c>
@@ -1705,8 +1811,14 @@
       <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="5">
+        <v>41.793335999999996</v>
+      </c>
+      <c r="J11" s="6">
+        <v>-72.695823000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -1731,8 +1843,14 @@
       <c r="H12" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="5">
+        <v>41.790263000000003</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-72.664259000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -1757,8 +1875,14 @@
       <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="5">
+        <v>41.748587000000001</v>
+      </c>
+      <c r="J13" s="5">
+        <v>-72.696005999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>57</v>
       </c>
@@ -1783,8 +1907,14 @@
       <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="5">
+        <v>41.793335999999996</v>
+      </c>
+      <c r="J14" s="6">
+        <v>-72.695823000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
@@ -1809,8 +1939,14 @@
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="5">
+        <v>41.790263000000003</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-72.664259000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>65</v>
       </c>
@@ -1835,8 +1971,14 @@
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="5">
+        <v>41.793335999999996</v>
+      </c>
+      <c r="J16" s="6">
+        <v>-72.695823000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>69</v>
       </c>
@@ -1861,8 +2003,14 @@
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I17" s="5">
+        <v>41.761415</v>
+      </c>
+      <c r="J17" s="5">
+        <v>-72.525608000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="26.6" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
@@ -1885,8 +2033,14 @@
       <c r="H18" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="5">
+        <v>44.958733000000002</v>
+      </c>
+      <c r="J18" s="5">
+        <v>-72.922009000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -1911,8 +2065,14 @@
       <c r="H19" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="5">
+        <v>41.548611000000001</v>
+      </c>
+      <c r="J19" s="5">
+        <v>-72.656784000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.3" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>83</v>
       </c>
@@ -1935,8 +2095,14 @@
       <c r="H20" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="7">
+        <v>41.665999999999997</v>
+      </c>
+      <c r="J20" s="7">
+        <v>-72.778000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -1961,8 +2127,14 @@
       <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="5">
+        <v>41.160392999999999</v>
+      </c>
+      <c r="J21" s="5">
+        <v>-73.500124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>92</v>
       </c>
@@ -1987,8 +2159,14 @@
       <c r="H22" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="5">
+        <v>41.317030000000003</v>
+      </c>
+      <c r="J22" s="5">
+        <v>-72.927316000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>97</v>
       </c>
@@ -2013,8 +2191,14 @@
       <c r="H23" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="5">
+        <v>41.293934</v>
+      </c>
+      <c r="J23" s="5">
+        <v>-72.932028000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>101</v>
       </c>
@@ -2039,8 +2223,14 @@
       <c r="H24" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="5">
+        <v>41.293934</v>
+      </c>
+      <c r="J24" s="5">
+        <v>-72.932028000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>105</v>
       </c>
@@ -2063,8 +2253,14 @@
       <c r="H25" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="5">
+        <v>41.317030000000003</v>
+      </c>
+      <c r="J25" s="5">
+        <v>-72.927316000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>108</v>
       </c>
@@ -2089,8 +2285,14 @@
       <c r="H26" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="5">
+        <v>41.317030000000003</v>
+      </c>
+      <c r="J26" s="5">
+        <v>-72.927316000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>108</v>
       </c>
@@ -2115,8 +2317,14 @@
       <c r="H27" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I27" s="5">
+        <v>41.328038999999997</v>
+      </c>
+      <c r="J27" s="5">
+        <v>-72.970839999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="26.6" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>115</v>
       </c>
@@ -2141,8 +2349,14 @@
       <c r="H28" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="5">
+        <v>41.347450000000002</v>
+      </c>
+      <c r="J28" s="5">
+        <v>-72.101742999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>120</v>
       </c>
@@ -2167,8 +2381,14 @@
       <c r="H29" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I29" s="5">
+        <v>41.347450000000002</v>
+      </c>
+      <c r="J29" s="5">
+        <v>-72.101742999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="26.6" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>124</v>
       </c>
@@ -2191,8 +2411,14 @@
       <c r="H30" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="5">
+        <v>41.327148999999999</v>
+      </c>
+      <c r="J30" s="5">
+        <v>-72.215344000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>128</v>
       </c>
@@ -2217,8 +2443,14 @@
       <c r="H31" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="5">
+        <v>41.381459</v>
+      </c>
+      <c r="J31" s="5">
+        <v>-72.856369000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -2243,8 +2475,14 @@
       <c r="H32" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="5">
+        <v>41.083910000000003</v>
+      </c>
+      <c r="J32" s="5">
+        <v>-73.426614999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>135</v>
       </c>
@@ -2269,8 +2507,14 @@
       <c r="H33" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="5">
+        <v>41.54786</v>
+      </c>
+      <c r="J33" s="5">
+        <v>-72.089488000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>40</v>
       </c>
@@ -2295,8 +2539,14 @@
       <c r="H34" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="5">
+        <v>41.908026999999997</v>
+      </c>
+      <c r="J34" s="5">
+        <v>-71.870452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>144</v>
       </c>
@@ -2319,8 +2569,14 @@
       <c r="H35" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="5">
+        <v>41.053592000000002</v>
+      </c>
+      <c r="J35" s="5">
+        <v>-73.538168999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>148</v>
       </c>
@@ -2343,8 +2599,14 @@
       <c r="H36" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="5">
+        <v>41.171613999999998</v>
+      </c>
+      <c r="J36" s="5">
+        <v>-73.132159999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>152</v>
       </c>
@@ -2369,8 +2631,14 @@
       <c r="H37" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I37" s="5">
+        <v>41.834052</v>
+      </c>
+      <c r="J37" s="5">
+        <v>-73.131412999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="26.6" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>157</v>
       </c>
@@ -2395,8 +2663,14 @@
       <c r="H38" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="5">
+        <v>41.547103</v>
+      </c>
+      <c r="J38" s="5">
+        <v>-72.992727000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>161</v>
       </c>
@@ -2421,8 +2695,14 @@
       <c r="H39" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="5">
+        <v>41.550871999999998</v>
+      </c>
+      <c r="J39" s="5">
+        <v>-73.068652999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>108</v>
       </c>
@@ -2447,8 +2727,14 @@
       <c r="H40" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I40" s="5">
+        <v>41.272573000000001</v>
+      </c>
+      <c r="J40" s="5">
+        <v>-72.964967000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="26.6" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>166</v>
       </c>
@@ -2471,8 +2757,14 @@
       <c r="H41" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="5">
+        <v>41.272573000000001</v>
+      </c>
+      <c r="J41" s="5">
+        <v>-72.964967000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>169</v>
       </c>
@@ -2497,8 +2789,16 @@
       <c r="H42" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I42" s="5">
+        <v>41.708238000000001</v>
+      </c>
+      <c r="J42" s="5">
+        <v>-72.208549000000005</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J42" xr:uid="{D14C4AC2-F77D-4895-9713-70BFED046100}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>